--- a/experiments/programs/SeeDB_python/DiViz_airbnb/room_type='Shared_room'.xlsx
+++ b/experiments/programs/SeeDB_python/DiViz_airbnb/room_type='Shared_room'.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>0.54519340708521702</v>
+        <v>0.55658787856552394</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>0.34867439947630452</v>
+        <v>0.34730040455687539</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>0.29834750996865922</v>
+        <v>0.29630282006281672</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>0.29118743519063811</v>
+        <v>0.28835188446099741</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>0.28748627037578822</v>
+        <v>0.28750645003444802</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <v>0.28444071685071087</v>
+        <v>0.28443661004096188</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>0.2104988967332527</v>
+        <v>0.20893284693405781</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -584,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0.1893304156291763</v>
+        <v>0.18934890507199281</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>0.15536676499376531</v>
+        <v>0.15536376609026581</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="D15">
-        <v>0.1236529156199245</v>
+        <v>0.1236527096893032</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <v>0.1178875813747636</v>
+        <v>0.11788190023379259</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <v>0.1126227146022219</v>
+        <v>0.1126278976634076</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <v>0.10963618049856021</v>
+        <v>0.1097089869110723</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <v>0.10520576182542329</v>
+        <v>0.10519711397562589</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="D20">
-        <v>0.1026240127545314</v>
+        <v>0.1026117295029373</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>12</v>
       </c>
       <c r="D22">
-        <v>9.6781736853280453E-2</v>
+        <v>9.6763013292547828E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="D23">
-        <v>9.4524946827056006E-2</v>
+        <v>9.4600971673912002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>8.5073958952810794E-2</v>
+        <v>8.5074217121010695E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="D25">
-        <v>8.4803717451678723E-2</v>
+        <v>8.4974342153718629E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>12</v>
       </c>
       <c r="D26">
-        <v>7.3108929965884431E-2</v>
+        <v>7.3103255683503232E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>1.3647669223881021E-2</v>
+        <v>1.363739692560559E-2</v>
       </c>
     </row>
   </sheetData>
